--- a/Datos/Índice de Precios al Consumidor.xlsx
+++ b/Datos/Índice de Precios al Consumidor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegucigalpa/Documents/Modelos_VAR/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8349E768-1108-7B4B-8480-20DACA748902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F918D-773C-CB40-9C09-47698883EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C1159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13235,15 +13235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="4d53abad-067f-4dc2-ab09-89be0e02cd42">5VWPXJC374A3-30589011-6</_dlc_DocId>
@@ -13255,7 +13246,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083F26535DDDA054E873BDB4922E45181" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de1a77bcad086145f121e1042f89b3aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d53abad-067f-4dc2-ab09-89be0e02cd42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaaad03e88035aaf12ace37b274ba11d" ns2:_="">
     <xsd:import namespace="4d53abad-067f-4dc2-ab09-89be0e02cd42"/>
@@ -13400,65 +13450,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9732B28-3A4C-42C8-949D-1218D11EAB4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D3E71F-6C2E-4F58-9F84-7871FDF36E0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13468,7 +13460,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9732B28-3A4C-42C8-949D-1218D11EAB4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B293AECE-ABD5-4F63-8F6C-4158E57A0E7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D97F7FCA-51B0-4519-9BC6-4CE27E2AD685}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13484,12 +13492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B293AECE-ABD5-4F63-8F6C-4158E57A0E7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>